--- a/ExcelProject/Register Tutor .xlsx
+++ b/ExcelProject/Register Tutor .xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D2F12-A51D-4EAA-893B-DADEA545C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B965E-0F76-4832-8CAD-6C9D7902D5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterTutor " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -33,9 +44,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Class Converage ID</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -51,9 +59,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TC4:01</t>
   </si>
   <si>
@@ -187,6 +192,78 @@
   </si>
   <si>
     <t>กรุณากรอกข้อมูลโดยห้ามมีอักขระพิเศษ</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Ptt123445678##</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>MJU6504106383</t>
+  </si>
+  <si>
+    <t>MJU6504106382</t>
+  </si>
+  <si>
+    <t>MJU6504106381</t>
+  </si>
+  <si>
+    <t>MJU6504106384</t>
+  </si>
+  <si>
+    <t>MJU6504106385</t>
+  </si>
+  <si>
+    <t>MJU6504106387</t>
+  </si>
+  <si>
+    <t>MJU6504106388</t>
+  </si>
+  <si>
+    <t>MJU6504106389</t>
+  </si>
+  <si>
+    <t>MJU6504106390</t>
+  </si>
+  <si>
+    <t>MJU6504106393</t>
+  </si>
+  <si>
+    <t>MJU6504106396</t>
+  </si>
+  <si>
+    <t>MJU6504106397</t>
+  </si>
+  <si>
+    <t>MJU6504106399</t>
+  </si>
+  <si>
+    <t>MJU6504106400</t>
+  </si>
+  <si>
+    <t>MJU6504106401</t>
+  </si>
+  <si>
+    <t>MJU6504106402</t>
+  </si>
+  <si>
+    <t>MJU6504106405</t>
+  </si>
+  <si>
+    <t>MJU6504106407</t>
+  </si>
+  <si>
+    <t>MJU6504106410</t>
+  </si>
+  <si>
+    <t>MJU6504106412</t>
   </si>
 </sst>
 </file>
@@ -267,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,7 +354,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -558,504 +638,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="112.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="99.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="112.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="99.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelProject/Register Tutor .xlsx
+++ b/ExcelProject/Register Tutor .xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterTutor " sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,15 +31,14 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Angsana New"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -63,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,24 +85,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -450,7 +495,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -458,10 +503,11 @@
     <col width="9.140625" customWidth="1" style="2" min="1" max="1"/>
     <col width="13" customWidth="1" style="2" min="2" max="4"/>
     <col width="112.5703125" customWidth="1" style="2" min="5" max="5"/>
-    <col width="99.28515625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="54.7109375" customWidth="1" style="2" min="7" max="7"/>
-    <col width="43.85546875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="2" min="9" max="16384"/>
+    <col width="176.28515625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="74.7109375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="48.140625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="2" min="9" max="14"/>
+    <col width="9.140625" customWidth="1" style="2" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,7 +598,7 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
+      <c r="H2" s="3" t="inlineStr"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
@@ -563,7 +609,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -596,14 +642,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,19 +685,27 @@
           <t>สื่อสารเข้าใจประเด็น</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>กรุณากรอกข้อมูลที่ประกอบไปด้วยอักขระภาษาไทย [ก- ์] หรือ ภาษาอังกฤษ [A-Z, a-z] เท่านั้น</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -676,14 +738,18 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -716,14 +782,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -756,14 +830,18 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -796,14 +874,18 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -833,17 +915,25 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>กรุณากรอกข้อมูลจำนวนไม่น้อยกว่า 4 ตัวอักษร และไม่เกิน 100 ตัวอักษร</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="J9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -861,7 +951,7 @@
           <t>Ptt123445678##</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>HealthAndWellnessEmbeddedSystemsEduPsychologyDramaBasicsnteriorDesignEnvironmentalSciNanotechnologyEX</t>
         </is>
@@ -873,17 +963,25 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>กรุณากรอกข้อมูลจำนวนไม่น้อยกว่า 4 ตัวอักษร และไม่เกิน 100 ตัวอักษร</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>วิชาที่เชี่ยวชาญต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 4-100 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="J10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -912,14 +1010,22 @@
           <t>การุณากรอกหลักสูตรที่เชี่ยวชาญ</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>กรุณากรอกวิชาที่เชี่ยวชาญ (ห้ามเว้นว่าง)</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -929,7 +1035,7 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106396</t>
+          <t>MJU6504106394</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -952,14 +1058,18 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -969,7 +1079,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106397</t>
+          <t>MJU6504106396</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
@@ -992,14 +1102,18 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1009,7 +1123,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106399</t>
+          <t>MJU6504106397</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -1022,9 +1136,9 @@
           <t>คณิต</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>ฉันเคยทำงานด้านการตลาด ออนไลน์ดูแลโฆษณาวางแผนกล ยุทธ์และสร้างคอนเทนต์ให้แบรนด์ ต่างๆด้วยฝีมือของฉันเอง</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>ฉันเคยทำงานด้านการตลาดออนไลน์ ดูแลโฆษณา วางแผนกลยุทธ์ และสร้างคอนเทนต์ให้แบรนด์ต่างๆ ด้วยฝีมือของฉันเอง จึงมีความเข้าใจในกระบวนการทำงานตั้งแต่ต้นจนจบ ทั้งด้านการวิเคราะห์ กลุ่มเป้าหมาย การกำหนดแนวทางการสื่อสาร ที่เหมาะสม ไปจนถึง การผลิตชิ้นงานที่ตอบโจทย์</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1032,14 +1146,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>ไม่สามารถบันทึกได้</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -1049,7 +1171,7 @@
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106400</t>
+          <t>MJU6504106399</t>
         </is>
       </c>
       <c r="D15" s="8" t="inlineStr">
@@ -1062,9 +1184,9 @@
           <t>คณิต</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>ฉันเคยทำงานด้านการตลาด ออนไลน์รับผิดชอบการสร้างสื่อ โฆษณาวางแผนกลยุทธ์และดูแลสื่อ โซเชียลมีเดียกลุ่มด</t>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>ฉันเคยทำงานด้านการตลาดออนไลน์รับผิดชอบการสร้างสื่อโฆษณาวางแผนกลยุทธ์ และดูแลสื่อโซเชียลมีเดียกลุ่มดี ทำให้มีความเข้าใจในการวิเคราะห์กลุ่มเป้าหมายและวางแผนคอนเทนต์ให้เหมาะสมกับแต่ละแพลตฟอร์ม สามารถใช้เครื่องมือโฆษณาออนไลน์ ได้อย่างมีประสิทธิภาพอย่างเหมาะสม</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
@@ -1072,14 +1194,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>ไม่สามารถบันทึกได้</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1089,7 +1219,7 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106401</t>
+          <t>MJU6504106400</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -1102,7 +1232,7 @@
           <t>คณิต</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>ฉันได้รับเกียรติให</t>
         </is>
@@ -1112,14 +1242,22 @@
           <t>กรุณากรอกข้อมูลเป็นจำนวนไม่น้อยกว่า 20 ตัวอักษร และไม่เกิน 255 ตัวอักษร</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>กรุณากรอกข้อมูลเป็นจำนวนไม่น้อยกว่า 20 ตัวอักษร และไม่เกิน 255 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="J16" s="3" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1129,7 +1267,7 @@
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106402</t>
+          <t>MJU6504106405</t>
         </is>
       </c>
       <c r="D17" s="8" t="inlineStr">
@@ -1137,14 +1275,14 @@
           <t>Ptt123445678##</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="10" t="inlineStr">
         <is>
           <t>คณิต</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>ฉันเคยทำงานเป็นนักออกแบบดูแล สื่อโฆษณาออนไลน์และสร้างคอน เทนต์ให้แบรนด์ต่างๆทำให้มีทักษะ ด้านการออกแบบท</t>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>ฉันเคยทำงานเป็นนักออกแบบดูแลสื่อโฆษณาออนไลน์และสร้างคอนเทนต์ให้แบรนด์ต่างๆทำให้มีทักษะด้านการออกแบบทีดีและสามารถประยุกต์ใช้ความคิดสร้างสรรค์กับกลยุทธ์ทางการตลาดได้อย่างมีประสิทธิภาพ นอกจากนี้ยังมีประสบการณ์ในการวางแผนคอนเทนต์ การเลือกใช้ภาพและข้อความให้เหม</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1152,14 +1290,22 @@
           <t>กรุณากรอกข้อมูลเป็นจำนวนไม่น้อยกว่า 20 ตัวอักษร และไม่เกิน 255 ตัวอักษร</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>กรุณากรอกข้อมูลเป็นจำนวนไม่น้อยกว่า 20 ตัวอักษร และไม่เกิน 255 ตัวอักษร</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="J17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1169,7 +1315,7 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106405</t>
+          <t>MJU6504106407</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
@@ -1182,7 +1328,7 @@
           <t>คณิต</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr">
         <is>
           <t>ฉันเคยสอนรุ่นน้องที่ไม่เข้าใจเนื้อหา รายวิชาที่ยากๆมาแล้ว</t>
         </is>
@@ -1192,14 +1338,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>ไม่สามารถบันทึกได้</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1209,7 +1363,7 @@
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>MJU6504106407</t>
+          <t>MJU6504106408</t>
         </is>
       </c>
       <c r="D19" s="8" t="inlineStr">
@@ -1232,14 +1386,22 @@
           <t>กรุณากรอกข้อมูลโดยห้ามมีอักขระพิเศษ</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>กรุณากรอกข้อมูลโดยห้ามมีอักขระพิเศษ</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="J19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1272,14 +1434,22 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>ไม่สามารถบันทึกได้</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1308,8 +1478,12 @@
           <t>บันทึกการสมัครสำเร็จ</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="J21" s="3" t="n"/>
     </row>
   </sheetData>
